--- a/uploads/M12.xlsx
+++ b/uploads/M12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>Azizbek Bariyev</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
   </si>
 </sst>
 </file>
@@ -408,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="7" width="10" customWidth="1"/>
+    <col min="4" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,10 +458,144 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/uploads/M12.xlsx
+++ b/uploads/M12.xlsx
@@ -425,7 +425,7 @@
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="11" width="10" customWidth="1"/>
+    <col min="4" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -465,6 +465,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>